--- a/artfynd/A 61661-2025 artfynd.xlsx
+++ b/artfynd/A 61661-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130938753</v>
       </c>
       <c r="B2" t="n">
-        <v>79495</v>
+        <v>79499</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>130938741</v>
       </c>
       <c r="B3" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>130938738</v>
       </c>
       <c r="B4" t="n">
-        <v>80345</v>
+        <v>80349</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>130938739</v>
       </c>
       <c r="B5" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -1122,7 +1122,7 @@
         <v>130938726</v>
       </c>
       <c r="B6" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 61661-2025 artfynd.xlsx
+++ b/artfynd/A 61661-2025 artfynd.xlsx
@@ -680,37 +680,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130938753</v>
+        <v>130938741</v>
       </c>
       <c r="B2" t="n">
-        <v>79499</v>
+        <v>91828</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6459</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(Flot.) Kullh.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>476728</v>
+        <v>476663</v>
       </c>
       <c r="R2" t="n">
-        <v>7033663</v>
+        <v>7033854</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -768,7 +768,22 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -786,37 +801,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130938741</v>
+        <v>130938753</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>79499</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>6459</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>Lopadium disciforme</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Flot.) Kullh.</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -824,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>476663</v>
+        <v>476728</v>
       </c>
       <c r="R3" t="n">
-        <v>7033854</v>
+        <v>7033663</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,22 +889,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>

--- a/artfynd/A 61661-2025 artfynd.xlsx
+++ b/artfynd/A 61661-2025 artfynd.xlsx
@@ -680,37 +680,37 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>130938741</v>
+        <v>130938753</v>
       </c>
       <c r="B2" t="n">
-        <v>91828</v>
+        <v>79499</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>6459</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Barkkornlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma s.lat.</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>Lopadium disciforme</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>(Flot.) Kullh.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>teleomorf</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>476663</v>
+        <v>476728</v>
       </c>
       <c r="R2" t="n">
-        <v>7033854</v>
+        <v>7033663</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -768,22 +768,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>Granskog</t>
-        </is>
-      </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO2" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
+          <t>Barrskog</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr"/>
@@ -801,37 +786,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>130938753</v>
+        <v>130938741</v>
       </c>
       <c r="B3" t="n">
-        <v>79499</v>
+        <v>91828</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6459</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Barkkornlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lopadium disciforme</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>(Flot.) Kullh.</t>
-        </is>
-      </c>
+          <t>Porodaedalea chrysoloma s.lat.</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>teleomorf</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -839,10 +824,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>476728</v>
+        <v>476663</v>
       </c>
       <c r="R3" t="n">
-        <v>7033663</v>
+        <v>7033854</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -889,7 +874,22 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>Barrskog</t>
+          <t>Granskog</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>

--- a/artfynd/A 61661-2025 artfynd.xlsx
+++ b/artfynd/A 61661-2025 artfynd.xlsx
@@ -683,7 +683,7 @@
         <v>130938753</v>
       </c>
       <c r="B2" t="n">
-        <v>79499</v>
+        <v>79500</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -789,7 +789,7 @@
         <v>130938741</v>
       </c>
       <c r="B3" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         <v>130938738</v>
       </c>
       <c r="B4" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -1016,7 +1016,7 @@
         <v>130938739</v>
       </c>
       <c r="B5" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
